--- a/Assignment/Lab6_DT/TVPackage/bin/sqa/main/template_Lab6.xlsx
+++ b/Assignment/Lab6_DT/TVPackage/bin/sqa/main/template_Lab6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACE\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B0F3A1-A433-46CC-9CA9-E72621606F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FD9AC0-D399-45BA-AA91-8F725C6234ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Limited Entry Decision Table" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="107">
   <si>
     <t>Condition</t>
   </si>
@@ -265,9 +265,6 @@
   </si>
   <si>
     <t>live</t>
-  </si>
-  <si>
-    <t>yearlyContract</t>
   </si>
   <si>
     <t>TC001</t>
@@ -28424,7 +28421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="E3" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -55963,8 +55960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
@@ -56097,7 +56094,7 @@
         <v>78</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
@@ -56108,7 +56105,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>44</v>
@@ -56129,7 +56126,7 @@
         <v>150</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1">
@@ -56137,7 +56134,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>44</v>
@@ -56158,7 +56155,7 @@
         <v>100</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" customHeight="1">
@@ -56166,7 +56163,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>44</v>
@@ -56187,7 +56184,7 @@
         <v>150</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" customHeight="1">
@@ -56195,7 +56192,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>44</v>
@@ -56216,7 +56213,7 @@
         <v>200</v>
       </c>
       <c r="I12" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1">
@@ -56224,7 +56221,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>44</v>
@@ -56245,7 +56242,7 @@
         <v>150</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1">
@@ -56253,7 +56250,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>44</v>
@@ -56274,7 +56271,7 @@
         <v>200</v>
       </c>
       <c r="I14" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30" customHeight="1">
@@ -56282,7 +56279,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>44</v>
@@ -56303,7 +56300,7 @@
         <v>150</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1">
@@ -56311,7 +56308,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>44</v>
@@ -56332,7 +56329,7 @@
         <v>300</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="30" customHeight="1">
@@ -56340,7 +56337,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>45</v>
@@ -56361,7 +56358,7 @@
         <v>350</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="30" customHeight="1">
@@ -56369,7 +56366,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>45</v>
@@ -56390,7 +56387,7 @@
         <v>300</v>
       </c>
       <c r="I18" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="30" customHeight="1">
@@ -56398,7 +56395,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>45</v>
@@ -56419,7 +56416,7 @@
         <v>350</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="30" customHeight="1">
@@ -56427,7 +56424,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>45</v>
@@ -56448,7 +56445,7 @@
         <v>400</v>
       </c>
       <c r="I20" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="30" customHeight="1">
@@ -56456,7 +56453,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>45</v>
@@ -56477,7 +56474,7 @@
         <v>350</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="30" customHeight="1">
@@ -56485,7 +56482,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>45</v>
@@ -56506,7 +56503,7 @@
         <v>400</v>
       </c>
       <c r="I22" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="30" customHeight="1">
@@ -56514,7 +56511,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>45</v>
@@ -56535,7 +56532,7 @@
         <v>350</v>
       </c>
       <c r="I23" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="30" customHeight="1">
@@ -56543,7 +56540,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>45</v>
@@ -56564,7 +56561,7 @@
         <v>500</v>
       </c>
       <c r="I24" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="30" customHeight="1">
@@ -56572,7 +56569,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>46</v>
@@ -56593,7 +56590,7 @@
         <v>450</v>
       </c>
       <c r="I25" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="30" customHeight="1">
@@ -56601,7 +56598,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>46</v>
@@ -56622,7 +56619,7 @@
         <v>400</v>
       </c>
       <c r="I26" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1">
@@ -56630,7 +56627,7 @@
         <v>19</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>46</v>
@@ -56651,7 +56648,7 @@
         <v>450</v>
       </c>
       <c r="I27" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="30" customHeight="1">
@@ -56659,7 +56656,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>46</v>
@@ -56680,7 +56677,7 @@
         <v>500</v>
       </c>
       <c r="I28" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="30" customHeight="1">
@@ -56688,7 +56685,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>46</v>
@@ -56709,7 +56706,7 @@
         <v>450</v>
       </c>
       <c r="I29" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="30" customHeight="1">
@@ -56717,7 +56714,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>46</v>
@@ -56738,7 +56735,7 @@
         <v>500</v>
       </c>
       <c r="I30" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="30" customHeight="1">
@@ -56746,7 +56743,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C31" s="16" t="s">
         <v>46</v>
@@ -56767,7 +56764,7 @@
         <v>450</v>
       </c>
       <c r="I31" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="30" customHeight="1">
@@ -56775,7 +56772,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>46</v>
@@ -56796,7 +56793,7 @@
         <v>600</v>
       </c>
       <c r="I32" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15.75" customHeight="1">
@@ -59725,8 +59722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
@@ -59743,7 +59740,7 @@
     <col min="10" max="27" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1">
+    <row r="1" spans="1:9" ht="45" customHeight="1">
       <c r="A1" s="24" t="s">
         <v>57</v>
       </c>
@@ -59765,12 +59762,12 @@
       <c r="G2" s="12"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1">
+    <row r="3" spans="1:9" ht="50.25" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>58</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
@@ -59783,7 +59780,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1">
+    <row r="4" spans="1:9" ht="50.25" customHeight="1">
       <c r="A4" s="14" t="s">
         <v>62</v>
       </c>
@@ -59801,7 +59798,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1">
+    <row r="5" spans="1:9" ht="45" customHeight="1">
       <c r="A5" s="17" t="s">
         <v>66</v>
       </c>
@@ -59865,7 +59862,7 @@
         <v>78</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
@@ -59876,7 +59873,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>44</v>
@@ -59897,7 +59894,7 @@
         <v>150</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1">
@@ -59905,7 +59902,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>44</v>
@@ -59926,7 +59923,7 @@
         <v>100</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" customHeight="1">
@@ -59934,7 +59931,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>44</v>
@@ -59955,7 +59952,7 @@
         <v>150</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" customHeight="1">
@@ -59963,7 +59960,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>44</v>
@@ -59984,7 +59981,7 @@
         <v>200</v>
       </c>
       <c r="I12" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1">
@@ -59992,7 +59989,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>44</v>
@@ -60013,7 +60010,7 @@
         <v>150</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1">
@@ -60021,7 +60018,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>44</v>
@@ -60042,7 +60039,7 @@
         <v>200</v>
       </c>
       <c r="I14" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30" customHeight="1">
@@ -60050,7 +60047,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>44</v>
@@ -60071,7 +60068,7 @@
         <v>150</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1">
@@ -60079,7 +60076,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>44</v>
@@ -60100,7 +60097,7 @@
         <v>300</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="30" customHeight="1">
@@ -60108,7 +60105,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>45</v>
@@ -60129,7 +60126,7 @@
         <v>350</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="30" customHeight="1">
@@ -60137,7 +60134,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>45</v>
@@ -60158,7 +60155,7 @@
         <v>300</v>
       </c>
       <c r="I18" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="30" customHeight="1">
@@ -60166,7 +60163,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>45</v>
@@ -60187,7 +60184,7 @@
         <v>350</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="30" customHeight="1">
@@ -60195,7 +60192,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>45</v>
@@ -60216,7 +60213,7 @@
         <v>400</v>
       </c>
       <c r="I20" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="30" customHeight="1">
@@ -60224,7 +60221,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>45</v>
@@ -60245,7 +60242,7 @@
         <v>350</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="30" customHeight="1">
@@ -60253,7 +60250,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>45</v>
@@ -60274,7 +60271,7 @@
         <v>400</v>
       </c>
       <c r="I22" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="30" customHeight="1">
@@ -60282,7 +60279,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>45</v>
@@ -60303,7 +60300,7 @@
         <v>350</v>
       </c>
       <c r="I23" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="30" customHeight="1">
@@ -60311,7 +60308,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>45</v>
@@ -60332,7 +60329,7 @@
         <v>500</v>
       </c>
       <c r="I24" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="30" customHeight="1">
@@ -60340,7 +60337,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>46</v>
@@ -60361,7 +60358,7 @@
         <v>450</v>
       </c>
       <c r="I25" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="30" customHeight="1">
@@ -60369,7 +60366,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>46</v>
@@ -60390,7 +60387,7 @@
         <v>400</v>
       </c>
       <c r="I26" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1">
@@ -60398,7 +60395,7 @@
         <v>19</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>46</v>
@@ -60419,7 +60416,7 @@
         <v>450</v>
       </c>
       <c r="I27" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="30" customHeight="1">
@@ -60427,7 +60424,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>46</v>
@@ -60448,7 +60445,7 @@
         <v>500</v>
       </c>
       <c r="I28" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="30" customHeight="1">
@@ -60456,7 +60453,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>46</v>
@@ -60477,7 +60474,7 @@
         <v>450</v>
       </c>
       <c r="I29" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="30" customHeight="1">
@@ -60485,7 +60482,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>46</v>
@@ -60506,7 +60503,7 @@
         <v>500</v>
       </c>
       <c r="I30" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="30" customHeight="1">
@@ -60514,7 +60511,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C31" s="16" t="s">
         <v>46</v>
@@ -60535,7 +60532,7 @@
         <v>450</v>
       </c>
       <c r="I31" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="30" customHeight="1">
@@ -60543,7 +60540,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>46</v>
@@ -60564,7 +60561,7 @@
         <v>600</v>
       </c>
       <c r="I32" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1"/>

--- a/Assignment/Lab6_DT/TVPackage/bin/sqa/main/template_Lab6.xlsx
+++ b/Assignment/Lab6_DT/TVPackage/bin/sqa/main/template_Lab6.xlsx
@@ -3,14 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACE\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FD9AC0-D399-45BA-AA91-8F725C6234ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{47949C30-00CA-4C41-BCAC-AF021B063FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Limited Entry Decision Table" sheetId="1" r:id="rId1"/>
@@ -19,6 +14,7 @@
     <sheet name="TestCase_EEDT" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A3:G10"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="4F7fP3zqnuVJnKMLDiJfrhoATJu7pN+AiXOvXjhIAus="/>
@@ -609,6 +605,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -630,8 +628,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -55960,8 +55956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:F5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
@@ -55973,16 +55969,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="49.5" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="11"/>
@@ -55998,13 +55994,13 @@
       <c r="A3" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
       <c r="G3" s="15" t="s">
         <v>60</v>
       </c>
@@ -56016,13 +56012,13 @@
       <c r="A4" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
       <c r="G4" s="15" t="s">
         <v>64</v>
       </c>
@@ -56034,13 +56030,13 @@
       <c r="A5" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="28"/>
       <c r="G5" s="15" t="s">
         <v>68</v>
       </c>
@@ -56059,31 +56055,31 @@
       <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:9" ht="56.25" customHeight="1">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="21" t="s">
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="25" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="18" t="s">
         <v>76</v>
       </c>
@@ -56096,9 +56092,9 @@
       <c r="F8" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1">
       <c r="A9" s="19">
@@ -56125,7 +56121,7 @@
       <c r="H9" s="16">
         <v>150</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="I9" s="21" t="s">
         <v>80</v>
       </c>
     </row>
@@ -56154,7 +56150,7 @@
       <c r="H10" s="16">
         <v>100</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="I10" s="21" t="s">
         <v>80</v>
       </c>
     </row>
@@ -56183,7 +56179,7 @@
       <c r="H11" s="16">
         <v>150</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="22" t="s">
         <v>83</v>
       </c>
     </row>
@@ -56212,7 +56208,7 @@
       <c r="H12" s="16">
         <v>200</v>
       </c>
-      <c r="I12" s="30" t="s">
+      <c r="I12" s="21" t="s">
         <v>80</v>
       </c>
     </row>
@@ -56241,7 +56237,7 @@
       <c r="H13" s="16">
         <v>150</v>
       </c>
-      <c r="I13" s="31" t="s">
+      <c r="I13" s="22" t="s">
         <v>83</v>
       </c>
     </row>
@@ -56270,7 +56266,7 @@
       <c r="H14" s="16">
         <v>200</v>
       </c>
-      <c r="I14" s="30" t="s">
+      <c r="I14" s="21" t="s">
         <v>80</v>
       </c>
     </row>
@@ -56299,7 +56295,7 @@
       <c r="H15" s="16">
         <v>150</v>
       </c>
-      <c r="I15" s="31" t="s">
+      <c r="I15" s="22" t="s">
         <v>83</v>
       </c>
     </row>
@@ -56328,7 +56324,7 @@
       <c r="H16" s="16">
         <v>300</v>
       </c>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="21" t="s">
         <v>80</v>
       </c>
     </row>
@@ -56357,7 +56353,7 @@
       <c r="H17" s="16">
         <v>350</v>
       </c>
-      <c r="I17" s="30" t="s">
+      <c r="I17" s="21" t="s">
         <v>80</v>
       </c>
     </row>
@@ -56386,7 +56382,7 @@
       <c r="H18" s="16">
         <v>300</v>
       </c>
-      <c r="I18" s="30" t="s">
+      <c r="I18" s="21" t="s">
         <v>80</v>
       </c>
     </row>
@@ -56415,7 +56411,7 @@
       <c r="H19" s="16">
         <v>350</v>
       </c>
-      <c r="I19" s="31" t="s">
+      <c r="I19" s="22" t="s">
         <v>83</v>
       </c>
     </row>
@@ -56444,7 +56440,7 @@
       <c r="H20" s="16">
         <v>400</v>
       </c>
-      <c r="I20" s="30" t="s">
+      <c r="I20" s="21" t="s">
         <v>80</v>
       </c>
     </row>
@@ -56473,7 +56469,7 @@
       <c r="H21" s="16">
         <v>350</v>
       </c>
-      <c r="I21" s="31" t="s">
+      <c r="I21" s="22" t="s">
         <v>83</v>
       </c>
     </row>
@@ -56502,7 +56498,7 @@
       <c r="H22" s="16">
         <v>400</v>
       </c>
-      <c r="I22" s="30" t="s">
+      <c r="I22" s="21" t="s">
         <v>80</v>
       </c>
     </row>
@@ -56531,7 +56527,7 @@
       <c r="H23" s="16">
         <v>350</v>
       </c>
-      <c r="I23" s="31" t="s">
+      <c r="I23" s="22" t="s">
         <v>83</v>
       </c>
     </row>
@@ -56560,7 +56556,7 @@
       <c r="H24" s="16">
         <v>500</v>
       </c>
-      <c r="I24" s="30" t="s">
+      <c r="I24" s="21" t="s">
         <v>80</v>
       </c>
     </row>
@@ -56589,7 +56585,7 @@
       <c r="H25" s="16">
         <v>450</v>
       </c>
-      <c r="I25" s="30" t="s">
+      <c r="I25" s="21" t="s">
         <v>80</v>
       </c>
     </row>
@@ -56618,7 +56614,7 @@
       <c r="H26" s="16">
         <v>400</v>
       </c>
-      <c r="I26" s="30" t="s">
+      <c r="I26" s="21" t="s">
         <v>80</v>
       </c>
     </row>
@@ -56647,7 +56643,7 @@
       <c r="H27" s="16">
         <v>450</v>
       </c>
-      <c r="I27" s="31" t="s">
+      <c r="I27" s="22" t="s">
         <v>83</v>
       </c>
     </row>
@@ -56676,7 +56672,7 @@
       <c r="H28" s="16">
         <v>500</v>
       </c>
-      <c r="I28" s="30" t="s">
+      <c r="I28" s="21" t="s">
         <v>80</v>
       </c>
     </row>
@@ -56705,7 +56701,7 @@
       <c r="H29" s="16">
         <v>450</v>
       </c>
-      <c r="I29" s="31" t="s">
+      <c r="I29" s="22" t="s">
         <v>83</v>
       </c>
     </row>
@@ -56734,7 +56730,7 @@
       <c r="H30" s="16">
         <v>500</v>
       </c>
-      <c r="I30" s="30" t="s">
+      <c r="I30" s="21" t="s">
         <v>80</v>
       </c>
     </row>
@@ -56763,7 +56759,7 @@
       <c r="H31" s="16">
         <v>450</v>
       </c>
-      <c r="I31" s="31" t="s">
+      <c r="I31" s="22" t="s">
         <v>83</v>
       </c>
     </row>
@@ -56792,7 +56788,7 @@
       <c r="H32" s="16">
         <v>600</v>
       </c>
-      <c r="I32" s="30" t="s">
+      <c r="I32" s="21" t="s">
         <v>80</v>
       </c>
     </row>
@@ -59722,7 +59718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -59741,16 +59737,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="45" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="11"/>
@@ -59766,13 +59762,13 @@
       <c r="A3" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
       <c r="G3" s="15" t="s">
         <v>60</v>
       </c>
@@ -59784,13 +59780,13 @@
       <c r="A4" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
       <c r="G4" s="15" t="s">
         <v>64</v>
       </c>
@@ -59802,13 +59798,13 @@
       <c r="A5" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="28"/>
       <c r="G5" s="15" t="s">
         <v>68</v>
       </c>
@@ -59827,31 +59823,31 @@
       <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:9" ht="55.5" customHeight="1">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="21" t="s">
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="25" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="35.25" customHeight="1">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="18" t="s">
         <v>76</v>
       </c>
@@ -59864,9 +59860,9 @@
       <c r="F8" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1">
       <c r="A9" s="16">
@@ -59893,7 +59889,7 @@
       <c r="H9" s="16">
         <v>150</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="I9" s="21" t="s">
         <v>80</v>
       </c>
     </row>
@@ -59922,7 +59918,7 @@
       <c r="H10" s="16">
         <v>100</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="I10" s="21" t="s">
         <v>80</v>
       </c>
     </row>
@@ -59951,7 +59947,7 @@
       <c r="H11" s="16">
         <v>150</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="22" t="s">
         <v>83</v>
       </c>
     </row>
@@ -59980,7 +59976,7 @@
       <c r="H12" s="16">
         <v>200</v>
       </c>
-      <c r="I12" s="30" t="s">
+      <c r="I12" s="21" t="s">
         <v>80</v>
       </c>
     </row>
@@ -60009,7 +60005,7 @@
       <c r="H13" s="16">
         <v>150</v>
       </c>
-      <c r="I13" s="31" t="s">
+      <c r="I13" s="22" t="s">
         <v>83</v>
       </c>
     </row>
@@ -60038,7 +60034,7 @@
       <c r="H14" s="16">
         <v>200</v>
       </c>
-      <c r="I14" s="30" t="s">
+      <c r="I14" s="21" t="s">
         <v>80</v>
       </c>
     </row>
@@ -60067,7 +60063,7 @@
       <c r="H15" s="16">
         <v>150</v>
       </c>
-      <c r="I15" s="31" t="s">
+      <c r="I15" s="22" t="s">
         <v>83</v>
       </c>
     </row>
@@ -60096,7 +60092,7 @@
       <c r="H16" s="16">
         <v>300</v>
       </c>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="21" t="s">
         <v>80</v>
       </c>
     </row>
@@ -60125,7 +60121,7 @@
       <c r="H17" s="16">
         <v>350</v>
       </c>
-      <c r="I17" s="30" t="s">
+      <c r="I17" s="21" t="s">
         <v>80</v>
       </c>
     </row>
@@ -60154,7 +60150,7 @@
       <c r="H18" s="16">
         <v>300</v>
       </c>
-      <c r="I18" s="30" t="s">
+      <c r="I18" s="21" t="s">
         <v>80</v>
       </c>
     </row>
@@ -60183,7 +60179,7 @@
       <c r="H19" s="16">
         <v>350</v>
       </c>
-      <c r="I19" s="31" t="s">
+      <c r="I19" s="22" t="s">
         <v>83</v>
       </c>
     </row>
@@ -60212,7 +60208,7 @@
       <c r="H20" s="16">
         <v>400</v>
       </c>
-      <c r="I20" s="30" t="s">
+      <c r="I20" s="21" t="s">
         <v>80</v>
       </c>
     </row>
@@ -60241,7 +60237,7 @@
       <c r="H21" s="16">
         <v>350</v>
       </c>
-      <c r="I21" s="31" t="s">
+      <c r="I21" s="22" t="s">
         <v>83</v>
       </c>
     </row>
@@ -60270,7 +60266,7 @@
       <c r="H22" s="16">
         <v>400</v>
       </c>
-      <c r="I22" s="30" t="s">
+      <c r="I22" s="21" t="s">
         <v>80</v>
       </c>
     </row>
@@ -60299,7 +60295,7 @@
       <c r="H23" s="16">
         <v>350</v>
       </c>
-      <c r="I23" s="31" t="s">
+      <c r="I23" s="22" t="s">
         <v>83</v>
       </c>
     </row>
@@ -60328,7 +60324,7 @@
       <c r="H24" s="16">
         <v>500</v>
       </c>
-      <c r="I24" s="30" t="s">
+      <c r="I24" s="21" t="s">
         <v>80</v>
       </c>
     </row>
@@ -60357,7 +60353,7 @@
       <c r="H25" s="16">
         <v>450</v>
       </c>
-      <c r="I25" s="30" t="s">
+      <c r="I25" s="21" t="s">
         <v>80</v>
       </c>
     </row>
@@ -60386,7 +60382,7 @@
       <c r="H26" s="16">
         <v>400</v>
       </c>
-      <c r="I26" s="30" t="s">
+      <c r="I26" s="21" t="s">
         <v>80</v>
       </c>
     </row>
@@ -60415,7 +60411,7 @@
       <c r="H27" s="16">
         <v>450</v>
       </c>
-      <c r="I27" s="31" t="s">
+      <c r="I27" s="22" t="s">
         <v>83</v>
       </c>
     </row>
@@ -60444,7 +60440,7 @@
       <c r="H28" s="16">
         <v>500</v>
       </c>
-      <c r="I28" s="30" t="s">
+      <c r="I28" s="21" t="s">
         <v>80</v>
       </c>
     </row>
@@ -60473,7 +60469,7 @@
       <c r="H29" s="16">
         <v>450</v>
       </c>
-      <c r="I29" s="31" t="s">
+      <c r="I29" s="22" t="s">
         <v>83</v>
       </c>
     </row>
@@ -60502,7 +60498,7 @@
       <c r="H30" s="16">
         <v>500</v>
       </c>
-      <c r="I30" s="30" t="s">
+      <c r="I30" s="21" t="s">
         <v>80</v>
       </c>
     </row>
@@ -60531,7 +60527,7 @@
       <c r="H31" s="16">
         <v>450</v>
       </c>
-      <c r="I31" s="31" t="s">
+      <c r="I31" s="22" t="s">
         <v>83</v>
       </c>
     </row>
@@ -60560,7 +60556,7 @@
       <c r="H32" s="16">
         <v>600</v>
       </c>
-      <c r="I32" s="30" t="s">
+      <c r="I32" s="21" t="s">
         <v>80</v>
       </c>
     </row>
